--- a/reports/For The Day (Actual)_Weather.xlsx
+++ b/reports/For The Day (Actual)_Weather.xlsx
@@ -444,26 +444,24 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>45993.33341936343</v>
+        <v>46000.33342068287</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="2">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Actual)_Weather.xlsx
+++ b/reports/For The Day (Actual)_Weather.xlsx
@@ -444,7 +444,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>46000.33342068287</v>
+        <v>46000.33341339121</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -452,16 +452,20 @@
       <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
       <c r="E2" s="2">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F2" s="2">
+        <v>60</v>
+      </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Actual)_Weather.xlsx
+++ b/reports/For The Day (Actual)_Weather.xlsx
@@ -444,7 +444,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>46000.33341339121</v>
+        <v>46000.33342068287</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -452,20 +452,16 @@
       <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="2">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2">
-        <v>60</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Actual)_Weather.xlsx
+++ b/reports/For The Day (Actual)_Weather.xlsx
@@ -40,7 +40,7 @@
     <t>current_temperature</t>
   </si>
   <si>
-    <t>Sunny</t>
+    <t>Mostly Sunny</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>46000.33342068287</v>
+        <v>46001.33341871528</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -454,14 +454,14 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Actual)_Weather.xlsx
+++ b/reports/For The Day (Actual)_Weather.xlsx
@@ -40,7 +40,7 @@
     <t>current_temperature</t>
   </si>
   <si>
-    <t>Mostly Sunny</t>
+    <t>Sunny</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>46001.33341871528</v>
+        <v>46001.33341168981</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -452,16 +452,20 @@
       <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
       <c r="E2" s="2">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F2" s="2">
+        <v>60</v>
+      </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Actual)_Weather.xlsx
+++ b/reports/For The Day (Actual)_Weather.xlsx
@@ -444,7 +444,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>46002.33342994213</v>
+        <v>46002.33342167824</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -452,16 +452,20 @@
       <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
       <c r="E2" s="2">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F2" s="2">
+        <v>60</v>
+      </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Actual)_Weather.xlsx
+++ b/reports/For The Day (Actual)_Weather.xlsx
@@ -444,7 +444,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>46002.33342167824</v>
+        <v>46005.3334372338</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -456,16 +456,14 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>28</v>
-      </c>
-      <c r="F2" s="2">
-        <v>60</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Actual)_Weather.xlsx
+++ b/reports/For The Day (Actual)_Weather.xlsx
@@ -40,7 +40,7 @@
     <t>current_temperature</t>
   </si>
   <si>
-    <t>Sunny</t>
+    <t>Cloudy</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>46005.3334372338</v>
+        <v>46005.33343055555</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -456,14 +456,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F2" s="2">
+        <v>60</v>
+      </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
